--- a/testFile/単体試験シート.xlsx
+++ b/testFile/単体試験シート.xlsx
@@ -9,13 +9,37 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="8280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="8280" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
     <sheet name="1" sheetId="2" r:id="rId2"/>
     <sheet name="2" sheetId="3" r:id="rId3"/>
     <sheet name="3" sheetId="4" r:id="rId4"/>
+    <sheet name="4" sheetId="5" r:id="rId5"/>
+    <sheet name="5" sheetId="6" r:id="rId6"/>
+    <sheet name="6" sheetId="7" r:id="rId7"/>
+    <sheet name="7" sheetId="8" r:id="rId8"/>
+    <sheet name="8" sheetId="9" r:id="rId9"/>
+    <sheet name="9" sheetId="10" r:id="rId10"/>
+    <sheet name="10" sheetId="11" r:id="rId11"/>
+    <sheet name="11" sheetId="12" r:id="rId12"/>
+    <sheet name="12" sheetId="13" r:id="rId13"/>
+    <sheet name="13" sheetId="14" r:id="rId14"/>
+    <sheet name="14" sheetId="15" r:id="rId15"/>
+    <sheet name="15" sheetId="16" r:id="rId16"/>
+    <sheet name="16" sheetId="17" r:id="rId17"/>
+    <sheet name="17" sheetId="18" r:id="rId18"/>
+    <sheet name="18" sheetId="19" r:id="rId19"/>
+    <sheet name="19" sheetId="20" r:id="rId20"/>
+    <sheet name="20" sheetId="21" r:id="rId21"/>
+    <sheet name="21" sheetId="22" r:id="rId22"/>
+    <sheet name="22" sheetId="23" r:id="rId23"/>
+    <sheet name="23" sheetId="24" r:id="rId24"/>
+    <sheet name="24" sheetId="25" r:id="rId25"/>
+    <sheet name="25" sheetId="26" r:id="rId26"/>
+    <sheet name="26" sheetId="27" r:id="rId27"/>
+    <sheet name="27" sheetId="28" r:id="rId28"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -365,7 +389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -380,10 +404,257 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -410,9 +681,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
